--- a/excel_target/엑셀_헌법_20250316.xlsx
+++ b/excel_target/엑셀_헌법_20250316.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyomoon.cho/PycharmProjects/excel_kr_to_en_2503/excel_target/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B0EC7-8337-464A-978A-F8385F87EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2B0EC7-8C25-CE4A-9DE8-90E0805325DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33660" yWindow="760" windowWidth="20980" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33660" yWindow="760" windowWidth="28540" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="헌법" sheetId="1" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,6 +1140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,46 +1179,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,2215 +1555,2215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="230.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="19" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:2" ht="19" customHeight="1" thickBot="1">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:2" ht="19" thickBot="1"/>
+    <row r="2" spans="2:2" ht="20" thickBot="1">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="2:2" ht="409.5" customHeight="1">
-      <c r="B8" s="5" t="s">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="2:2" ht="96">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>32079</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="80" customHeight="1">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:2">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="80" customHeight="1">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="128" customHeight="1">
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="6"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="80" customHeight="1">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="6"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="80" customHeight="1">
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="6"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="144" customHeight="1">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="160" customHeight="1">
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="176" customHeight="1">
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="2:2" ht="28">
+      <c r="B37" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="6"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:2" ht="32" customHeight="1">
-      <c r="B41" s="2" t="s">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="8" t="s">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2" ht="32">
+      <c r="B43" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="8" t="s">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="2:2" ht="32">
+      <c r="B45" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="96" customHeight="1">
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="96" customHeight="1">
-      <c r="B47" s="6" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="8" t="s">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="2:2" ht="32">
+      <c r="B49" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="112" customHeight="1">
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="304" customHeight="1">
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="2:2" ht="28">
+      <c r="B51" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="224" customHeight="1">
-      <c r="B52" s="6" t="s">
+    <row r="52" spans="2:2" ht="28">
+      <c r="B52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="272" customHeight="1">
-      <c r="B53" s="6" t="s">
+    <row r="53" spans="2:2" ht="28">
+      <c r="B53" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="96" customHeight="1">
-      <c r="B54" s="6" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="288" customHeight="1">
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="2:2" ht="28">
+      <c r="B55" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="8" t="s">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="2:2" ht="32">
+      <c r="B57" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="112" customHeight="1">
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="96" customHeight="1">
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="6"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="9"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="8" t="s">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="2:2" ht="32">
+      <c r="B65" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="9"/>
+      <c r="B66" s="11"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="9"/>
+      <c r="B68" s="11"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="9"/>
+      <c r="B70" s="11"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="9"/>
+      <c r="B72" s="11"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="64" customHeight="1">
-      <c r="B74" s="6" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="6"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="96" customHeight="1">
-      <c r="B77" s="6" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="112" customHeight="1">
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="224" customHeight="1">
-      <c r="B79" s="6" t="s">
+    <row r="79" spans="2:2" ht="28">
+      <c r="B79" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="6"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="80" customHeight="1">
-      <c r="B82" s="6" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="6"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="64" customHeight="1">
-      <c r="B85" s="6" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="128" customHeight="1">
-      <c r="B86" s="6" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="6"/>
+      <c r="B87" s="8"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="9"/>
+      <c r="B89" s="11"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="9"/>
+      <c r="B91" s="11"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="48" customHeight="1">
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="6"/>
+      <c r="B94" s="8"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="256" customHeight="1">
-      <c r="B96" s="6" t="s">
+    <row r="96" spans="2:2" ht="28">
+      <c r="B96" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="144" customHeight="1">
-      <c r="B97" s="6" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="80" customHeight="1">
-      <c r="B98" s="6" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="96" customHeight="1">
-      <c r="B99" s="6" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="8" t="s">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="2:2" ht="32">
+      <c r="B101" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="9"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="8" t="s">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="2:2" ht="32">
+      <c r="B103" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="240" customHeight="1">
-      <c r="B104" s="6" t="s">
+    <row r="104" spans="2:2" ht="28">
+      <c r="B104" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="6"/>
+      <c r="B105" s="8"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="9"/>
+      <c r="B107" s="11"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="112" customHeight="1">
-      <c r="B109" s="6" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="32" customHeight="1">
-      <c r="B110" s="6" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="112" customHeight="1">
-      <c r="B111" s="6" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="48" customHeight="1">
-      <c r="B112" s="6" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="144" customHeight="1">
-      <c r="B113" s="6" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="8" t="s">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="2:2" ht="32">
+      <c r="B115" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="128" customHeight="1">
-      <c r="B116" s="6" t="s">
+    <row r="116" spans="2:2">
+      <c r="B116" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="80" customHeight="1">
-      <c r="B117" s="6" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="112" customHeight="1">
-      <c r="B118" s="6" t="s">
+    <row r="118" spans="2:2">
+      <c r="B118" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="48" customHeight="1">
-      <c r="B119" s="6" t="s">
+    <row r="119" spans="2:2">
+      <c r="B119" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="2:2" ht="128" customHeight="1">
-      <c r="B120" s="6" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="6"/>
+      <c r="B121" s="8"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="112" customHeight="1">
-      <c r="B123" s="6" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="160" customHeight="1">
-      <c r="B124" s="6" t="s">
+    <row r="124" spans="2:2">
+      <c r="B124" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="6"/>
+      <c r="B125" s="8"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="64" customHeight="1">
-      <c r="B127" s="6" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="80" customHeight="1">
-      <c r="B128" s="6" t="s">
+    <row r="128" spans="2:2">
+      <c r="B128" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="80" customHeight="1">
-      <c r="B129" s="6" t="s">
+    <row r="129" spans="2:2">
+      <c r="B129" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="128" customHeight="1">
-      <c r="B130" s="6" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="96" customHeight="1">
-      <c r="B131" s="6" t="s">
+    <row r="131" spans="2:2">
+      <c r="B131" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="6"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="64" customHeight="1">
-      <c r="B134" s="6" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="112" customHeight="1">
-      <c r="B135" s="6" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="6"/>
+      <c r="B136" s="8"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="64" customHeight="1">
-      <c r="B138" s="6" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="64" customHeight="1">
-      <c r="B139" s="6" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="6"/>
+      <c r="B140" s="8"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="224" customHeight="1">
-      <c r="B142" s="6" t="s">
+    <row r="142" spans="2:2" ht="28">
+      <c r="B142" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="6"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="9"/>
+      <c r="B145" s="11"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="80" customHeight="1">
-      <c r="B147" s="6" t="s">
+    <row r="147" spans="2:2">
+      <c r="B147" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="6"/>
+      <c r="B148" s="8"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="3"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="9"/>
+      <c r="B152" s="11"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="64" customHeight="1">
-      <c r="B154" s="6" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="96" customHeight="1">
-      <c r="B155" s="6" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="6"/>
+      <c r="B156" s="8"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="9"/>
+      <c r="B158" s="11"/>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="9"/>
+      <c r="B160" s="11"/>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="128" customHeight="1">
-      <c r="B162" s="6" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="6"/>
+      <c r="B163" s="8"/>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="9"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="80" customHeight="1">
-      <c r="B167" s="6" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="208" customHeight="1">
-      <c r="B168" s="6" t="s">
+    <row r="168" spans="2:2" ht="28">
+      <c r="B168" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="8" t="s">
+      <c r="B169" s="8"/>
+    </row>
+    <row r="170" spans="2:2" ht="32">
+      <c r="B170" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="80" customHeight="1">
-      <c r="B171" s="6" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="96" customHeight="1">
-      <c r="B172" s="6" t="s">
+    <row r="172" spans="2:2">
+      <c r="B172" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="6"/>
+      <c r="B173" s="8"/>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="9"/>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="8" t="s">
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="2:2" ht="32">
+      <c r="B176" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="9"/>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="8" t="s">
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="2:2" ht="32">
+      <c r="B178" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="96" customHeight="1">
-      <c r="B179" s="6" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="8" t="s">
+      <c r="B180" s="8"/>
+    </row>
+    <row r="181" spans="2:2" ht="32">
+      <c r="B181" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="9"/>
+      <c r="B182" s="11"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="9"/>
+      <c r="B184" s="11"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="160" customHeight="1">
-      <c r="B186" s="6" t="s">
+    <row r="186" spans="2:2" ht="28">
+      <c r="B186" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="96" customHeight="1">
-      <c r="B187" s="6" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="192" customHeight="1">
-      <c r="B188" s="6" t="s">
+    <row r="188" spans="2:2" ht="28">
+      <c r="B188" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="128" customHeight="1">
-      <c r="B189" s="6" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="272" customHeight="1">
-      <c r="B190" s="6" t="s">
+    <row r="190" spans="2:2" ht="28">
+      <c r="B190" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="96" customHeight="1">
-      <c r="B191" s="6" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="6"/>
+      <c r="B192" s="8"/>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="160" customHeight="1">
-      <c r="B194" s="6" t="s">
+    <row r="194" spans="2:2" ht="28">
+      <c r="B194" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="192" customHeight="1">
-      <c r="B195" s="6" t="s">
+    <row r="195" spans="2:2" ht="28">
+      <c r="B195" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="80" customHeight="1">
-      <c r="B196" s="6" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="32" customHeight="1">
-      <c r="B197" s="6" t="s">
+    <row r="197" spans="2:2">
+      <c r="B197" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="48" customHeight="1">
-      <c r="B198" s="6" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="6"/>
+      <c r="B199" s="8"/>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="112" customHeight="1">
-      <c r="B201" s="6" t="s">
+    <row r="201" spans="2:2">
+      <c r="B201" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="6"/>
+      <c r="B202" s="8"/>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="9"/>
+      <c r="B204" s="11"/>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="9"/>
+      <c r="B206" s="11"/>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="9"/>
+      <c r="B208" s="11"/>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="9"/>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="8" t="s">
+      <c r="B210" s="11"/>
+    </row>
+    <row r="211" spans="2:2" ht="32">
+      <c r="B211" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="128" customHeight="1">
-      <c r="B212" s="6" t="s">
+    <row r="212" spans="2:2">
+      <c r="B212" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="8" t="s">
+      <c r="B213" s="8"/>
+    </row>
+    <row r="214" spans="2:2" ht="32">
+      <c r="B214" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="80" customHeight="1">
-      <c r="B215" s="6" t="s">
+    <row r="215" spans="2:2">
+      <c r="B215" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="6"/>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="8" t="s">
+      <c r="B216" s="8"/>
+    </row>
+    <row r="217" spans="2:2" ht="32">
+      <c r="B217" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="240" customHeight="1">
-      <c r="B218" s="6" t="s">
+    <row r="218" spans="2:2" ht="28">
+      <c r="B218" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="6"/>
+      <c r="B219" s="8"/>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="128" customHeight="1">
-      <c r="B221" s="6" t="s">
+    <row r="221" spans="2:2">
+      <c r="B221" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="222" spans="2:2">
-      <c r="B222" s="6"/>
+      <c r="B222" s="8"/>
     </row>
     <row r="223" spans="2:2">
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="64" customHeight="1">
-      <c r="B224" s="6" t="s">
+    <row r="224" spans="2:2">
+      <c r="B224" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="80" customHeight="1">
-      <c r="B225" s="6" t="s">
+    <row r="225" spans="2:2">
+      <c r="B225" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="64" customHeight="1">
-      <c r="B226" s="6" t="s">
+    <row r="226" spans="2:2">
+      <c r="B226" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="6"/>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="8" t="s">
+      <c r="B227" s="8"/>
+    </row>
+    <row r="228" spans="2:2" ht="32">
+      <c r="B228" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="272" customHeight="1">
-      <c r="B229" s="6" t="s">
+    <row r="229" spans="2:2" ht="28">
+      <c r="B229" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="96" customHeight="1">
-      <c r="B230" s="6" t="s">
+    <row r="230" spans="2:2">
+      <c r="B230" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="144" customHeight="1">
-      <c r="B231" s="6" t="s">
+    <row r="231" spans="2:2">
+      <c r="B231" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="232" spans="2:2">
-      <c r="B232" s="6"/>
+      <c r="B232" s="8"/>
     </row>
     <row r="233" spans="2:2">
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="3"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="2:2">
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" s="3"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" spans="2:2">
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="96" customHeight="1">
-      <c r="B238" s="6" t="s">
+    <row r="238" spans="2:2">
+      <c r="B238" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="64" customHeight="1">
-      <c r="B239" s="6" t="s">
+    <row r="239" spans="2:2">
+      <c r="B239" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="64" customHeight="1">
-      <c r="B240" s="6" t="s">
+    <row r="240" spans="2:2">
+      <c r="B240" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="6"/>
+      <c r="B241" s="8"/>
     </row>
     <row r="242" spans="2:2">
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="160" customHeight="1">
-      <c r="B243" s="6" t="s">
+    <row r="243" spans="2:2">
+      <c r="B243" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="128" customHeight="1">
-      <c r="B244" s="6" t="s">
+    <row r="244" spans="2:2">
+      <c r="B244" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="112" customHeight="1">
-      <c r="B245" s="6" t="s">
+    <row r="245" spans="2:2">
+      <c r="B245" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="64" customHeight="1">
-      <c r="B246" s="6" t="s">
+    <row r="246" spans="2:2">
+      <c r="B246" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" s="6"/>
+      <c r="B247" s="8"/>
     </row>
     <row r="248" spans="2:2">
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="144" customHeight="1">
-      <c r="B249" s="6" t="s">
+    <row r="249" spans="2:2">
+      <c r="B249" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="250" spans="2:2">
-      <c r="B250" s="6"/>
+      <c r="B250" s="8"/>
     </row>
     <row r="251" spans="2:2">
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="224" customHeight="1">
-      <c r="B252" s="6" t="s">
+    <row r="252" spans="2:2" ht="28">
+      <c r="B252" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="6"/>
+      <c r="B253" s="8"/>
     </row>
     <row r="254" spans="2:2">
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="255" spans="2:2">
-      <c r="B255" s="9"/>
+      <c r="B255" s="11"/>
     </row>
     <row r="256" spans="2:2">
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="257" spans="2:2">
-      <c r="B257" s="9"/>
+      <c r="B257" s="11"/>
     </row>
     <row r="258" spans="2:2">
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="259" spans="2:2">
-      <c r="B259" s="9"/>
+      <c r="B259" s="11"/>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="9"/>
+      <c r="B261" s="11"/>
     </row>
     <row r="262" spans="2:2">
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="48" customHeight="1">
-      <c r="B263" s="6" t="s">
+    <row r="263" spans="2:2">
+      <c r="B263" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="264" spans="2:2">
-      <c r="B264" s="6"/>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265" s="8" t="s">
+      <c r="B264" s="8"/>
+    </row>
+    <row r="265" spans="2:2" ht="32">
+      <c r="B265" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="266" spans="2:2">
-      <c r="B266" s="9"/>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267" s="8" t="s">
+      <c r="B266" s="11"/>
+    </row>
+    <row r="267" spans="2:2" ht="48">
+      <c r="B267" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="2:2" ht="224" customHeight="1">
-      <c r="B268" s="6" t="s">
+    <row r="268" spans="2:2" ht="28">
+      <c r="B268" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="128" customHeight="1">
-      <c r="B269" s="6" t="s">
+    <row r="269" spans="2:2">
+      <c r="B269" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="270" spans="2:2" ht="224" customHeight="1">
-      <c r="B270" s="6" t="s">
+    <row r="270" spans="2:2" ht="28">
+      <c r="B270" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="80" customHeight="1">
-      <c r="B271" s="6" t="s">
+    <row r="271" spans="2:2">
+      <c r="B271" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="272" spans="2:2">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="8" t="s">
+      <c r="B272" s="8"/>
+    </row>
+    <row r="273" spans="2:2" ht="32">
+      <c r="B273" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="48" customHeight="1">
-      <c r="B274" s="6" t="s">
+    <row r="274" spans="2:2">
+      <c r="B274" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="176" customHeight="1">
-      <c r="B275" s="6" t="s">
+    <row r="275" spans="2:2" ht="28">
+      <c r="B275" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="80" customHeight="1">
-      <c r="B276" s="6" t="s">
+    <row r="276" spans="2:2">
+      <c r="B276" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="112" customHeight="1">
-      <c r="B277" s="6" t="s">
+    <row r="277" spans="2:2">
+      <c r="B277" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="278" spans="2:2">
-      <c r="B278" s="6"/>
+      <c r="B278" s="8"/>
     </row>
     <row r="279" spans="2:2">
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="280" spans="2:2">
-      <c r="B280" s="9"/>
+      <c r="B280" s="11"/>
     </row>
     <row r="281" spans="2:2">
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="64" customHeight="1">
-      <c r="B282" s="6" t="s">
+    <row r="282" spans="2:2">
+      <c r="B282" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="64" customHeight="1">
-      <c r="B283" s="6" t="s">
+    <row r="283" spans="2:2">
+      <c r="B283" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="284" spans="2:2">
-      <c r="B284" s="6"/>
+      <c r="B284" s="8"/>
     </row>
     <row r="285" spans="2:2">
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="286" spans="2:2">
-      <c r="B286" s="9"/>
+      <c r="B286" s="11"/>
     </row>
     <row r="287" spans="2:2">
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="288" spans="2:2">
-      <c r="B288" s="9"/>
+      <c r="B288" s="11"/>
     </row>
     <row r="289" spans="2:2">
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="290" spans="2:2">
-      <c r="B290" s="9"/>
+      <c r="B290" s="11"/>
     </row>
     <row r="291" spans="2:2">
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="292" spans="2:2">
-      <c r="B292" s="9"/>
+      <c r="B292" s="11"/>
     </row>
     <row r="293" spans="2:2">
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="294" spans="2:2">
-      <c r="B294" s="9"/>
+      <c r="B294" s="11"/>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" s="8" t="s">
+      <c r="B295" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="296" spans="2:2">
-      <c r="B296" s="9"/>
+      <c r="B296" s="11"/>
     </row>
     <row r="297" spans="2:2">
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="298" spans="2:2">
-      <c r="B298" s="3"/>
-    </row>
-    <row r="299" spans="2:2" ht="32" customHeight="1">
-      <c r="B299" s="2" t="s">
+      <c r="B298" s="5"/>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="300" spans="2:2">
-      <c r="B300" s="3"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" spans="2:2">
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="302" spans="2:2" ht="112" customHeight="1">
-      <c r="B302" s="6" t="s">
+    <row r="302" spans="2:2">
+      <c r="B302" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="80" customHeight="1">
-      <c r="B303" s="6" t="s">
+    <row r="303" spans="2:2">
+      <c r="B303" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="304" spans="2:2">
-      <c r="B304" s="6"/>
+      <c r="B304" s="8"/>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="8" t="s">
+      <c r="B305" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="112" customHeight="1">
-      <c r="B306" s="6" t="s">
+    <row r="306" spans="2:2">
+      <c r="B306" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="80" customHeight="1">
-      <c r="B307" s="6" t="s">
+    <row r="307" spans="2:2">
+      <c r="B307" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="80" customHeight="1">
-      <c r="B308" s="6" t="s">
+    <row r="308" spans="2:2">
+      <c r="B308" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" s="6"/>
+      <c r="B309" s="8"/>
     </row>
     <row r="310" spans="2:2">
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="311" spans="2:2">
-      <c r="B311" s="3"/>
+      <c r="B311" s="5"/>
     </row>
     <row r="312" spans="2:2">
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="96" customHeight="1">
-      <c r="B313" s="6" t="s">
+    <row r="313" spans="2:2">
+      <c r="B313" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="80" customHeight="1">
-      <c r="B314" s="6" t="s">
+    <row r="314" spans="2:2">
+      <c r="B314" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="315" spans="2:2">
-      <c r="B315" s="6"/>
+      <c r="B315" s="8"/>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="48" customHeight="1">
-      <c r="B317" s="6" t="s">
+    <row r="317" spans="2:2">
+      <c r="B317" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="48" customHeight="1">
-      <c r="B318" s="6" t="s">
+    <row r="318" spans="2:2">
+      <c r="B318" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="64" customHeight="1">
-      <c r="B319" s="6" t="s">
+    <row r="319" spans="2:2">
+      <c r="B319" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="112" customHeight="1">
-      <c r="B320" s="6" t="s">
+    <row r="320" spans="2:2">
+      <c r="B320" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="80" customHeight="1">
-      <c r="B321" s="6" t="s">
+    <row r="321" spans="2:2">
+      <c r="B321" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="32" customHeight="1">
-      <c r="B322" s="6" t="s">
+    <row r="322" spans="2:2">
+      <c r="B322" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="32" customHeight="1">
-      <c r="B323" s="6" t="s">
+    <row r="323" spans="2:2">
+      <c r="B323" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="324" spans="2:2">
-      <c r="B324" s="6" t="s">
+      <c r="B324" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="32" customHeight="1">
-      <c r="B325" s="6" t="s">
+    <row r="325" spans="2:2">
+      <c r="B325" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="32" customHeight="1">
-      <c r="B326" s="6" t="s">
+    <row r="326" spans="2:2">
+      <c r="B326" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="327" spans="2:2" ht="64" customHeight="1">
-      <c r="B327" s="6" t="s">
+    <row r="327" spans="2:2">
+      <c r="B327" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="328" spans="2:2" ht="48" customHeight="1">
-      <c r="B328" s="6" t="s">
+    <row r="328" spans="2:2">
+      <c r="B328" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="48" customHeight="1">
-      <c r="B329" s="6" t="s">
+    <row r="329" spans="2:2">
+      <c r="B329" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="32" customHeight="1">
-      <c r="B330" s="6" t="s">
+    <row r="330" spans="2:2">
+      <c r="B330" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="80" customHeight="1">
-      <c r="B331" s="6" t="s">
+    <row r="331" spans="2:2">
+      <c r="B331" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="144" customHeight="1">
-      <c r="B332" s="6" t="s">
+    <row r="332" spans="2:2">
+      <c r="B332" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="64" customHeight="1">
-      <c r="B333" s="6" t="s">
+    <row r="333" spans="2:2">
+      <c r="B333" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="334" spans="2:2">
-      <c r="B334" s="6"/>
+      <c r="B334" s="8"/>
     </row>
     <row r="335" spans="2:2">
-      <c r="B335" s="8" t="s">
+      <c r="B335" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="128" customHeight="1">
-      <c r="B336" s="6" t="s">
+    <row r="336" spans="2:2">
+      <c r="B336" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="337" spans="2:2" ht="96" customHeight="1">
-      <c r="B337" s="6" t="s">
+    <row r="337" spans="2:2">
+      <c r="B337" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="338" spans="2:2">
-      <c r="B338" s="6"/>
-    </row>
-    <row r="339" spans="2:2">
-      <c r="B339" s="8" t="s">
+      <c r="B338" s="8"/>
+    </row>
+    <row r="339" spans="2:2" ht="32">
+      <c r="B339" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="48" customHeight="1">
-      <c r="B340" s="6" t="s">
+    <row r="340" spans="2:2">
+      <c r="B340" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="96" customHeight="1">
-      <c r="B341" s="6" t="s">
+    <row r="341" spans="2:2">
+      <c r="B341" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="342" spans="2:2">
-      <c r="B342" s="6"/>
+      <c r="B342" s="8"/>
     </row>
     <row r="343" spans="2:2">
-      <c r="B343" s="8" t="s">
+      <c r="B343" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="344" spans="2:2" ht="96" customHeight="1">
-      <c r="B344" s="6" t="s">
+    <row r="344" spans="2:2">
+      <c r="B344" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="345" spans="2:2">
-      <c r="B345" s="6"/>
+      <c r="B345" s="8"/>
     </row>
     <row r="346" spans="2:2">
-      <c r="B346" s="8" t="s">
+      <c r="B346" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="96" customHeight="1">
-      <c r="B347" s="6" t="s">
+    <row r="347" spans="2:2">
+      <c r="B347" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="348" spans="2:2">
-      <c r="B348" s="6"/>
+      <c r="B348" s="8"/>
     </row>
     <row r="349" spans="2:2">
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="350" spans="2:2">
-      <c r="B350" s="3"/>
+      <c r="B350" s="5"/>
     </row>
     <row r="351" spans="2:2">
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="352" spans="2:2">
-      <c r="B352" s="9"/>
+      <c r="B352" s="11"/>
     </row>
     <row r="353" spans="2:2">
-      <c r="B353" s="8" t="s">
+      <c r="B353" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="354" spans="2:2">
-      <c r="B354" s="9"/>
+      <c r="B354" s="11"/>
     </row>
     <row r="355" spans="2:2">
-      <c r="B355" s="8" t="s">
+      <c r="B355" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="356" spans="2:2">
-      <c r="B356" s="9"/>
+      <c r="B356" s="11"/>
     </row>
     <row r="357" spans="2:2">
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="358" spans="2:2">
-      <c r="B358" s="3"/>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="8" t="s">
+      <c r="B358" s="5"/>
+    </row>
+    <row r="359" spans="2:2" ht="32">
+      <c r="B359" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="360" spans="2:2">
-      <c r="B360" s="9"/>
+      <c r="B360" s="11"/>
     </row>
     <row r="361" spans="2:2">
-      <c r="B361" s="8" t="s">
+      <c r="B361" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="362" spans="2:2" ht="112" customHeight="1">
-      <c r="B362" s="6" t="s">
+    <row r="362" spans="2:2">
+      <c r="B362" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="363" spans="2:2" ht="128" customHeight="1">
-      <c r="B363" s="6" t="s">
+    <row r="363" spans="2:2">
+      <c r="B363" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="364" spans="2:2">
-      <c r="B364" s="6"/>
+      <c r="B364" s="8"/>
     </row>
     <row r="365" spans="2:2">
-      <c r="B365" s="8" t="s">
+      <c r="B365" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="366" spans="2:2">
-      <c r="B366" s="9"/>
+      <c r="B366" s="11"/>
     </row>
     <row r="367" spans="2:2">
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="368" spans="2:2">
-      <c r="B368" s="9"/>
+      <c r="B368" s="11"/>
     </row>
     <row r="369" spans="2:2">
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="370" spans="2:2">
-      <c r="B370" s="3"/>
+      <c r="B370" s="5"/>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" s="8" t="s">
+      <c r="B371" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="64" customHeight="1">
-      <c r="B372" s="6" t="s">
+    <row r="372" spans="2:2">
+      <c r="B372" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="373" spans="2:2" ht="48" customHeight="1">
-      <c r="B373" s="6" t="s">
+    <row r="373" spans="2:2">
+      <c r="B373" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="6"/>
+      <c r="B374" s="8"/>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" s="8" t="s">
+      <c r="B375" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="112" customHeight="1">
-      <c r="B376" s="6" t="s">
+    <row r="376" spans="2:2">
+      <c r="B376" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="377" spans="2:2" ht="64" customHeight="1">
-      <c r="B377" s="6" t="s">
+    <row r="377" spans="2:2">
+      <c r="B377" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="378" spans="2:2">
-      <c r="B378" s="6"/>
+      <c r="B378" s="8"/>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="8" t="s">
+      <c r="B379" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="9"/>
+      <c r="B380" s="11"/>
     </row>
     <row r="381" spans="2:2">
-      <c r="B381" s="8" t="s">
+      <c r="B381" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="382" spans="2:2" ht="80" customHeight="1">
-      <c r="B382" s="6" t="s">
+    <row r="382" spans="2:2">
+      <c r="B382" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="383" spans="2:2" ht="96" customHeight="1">
-      <c r="B383" s="6" t="s">
+    <row r="383" spans="2:2">
+      <c r="B383" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="384" spans="2:2">
-      <c r="B384" s="6"/>
+      <c r="B384" s="8"/>
     </row>
     <row r="385" spans="2:2">
-      <c r="B385" s="8" t="s">
+      <c r="B385" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="386" spans="2:2" ht="96" customHeight="1">
-      <c r="B386" s="6" t="s">
+    <row r="386" spans="2:2">
+      <c r="B386" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="387" spans="2:2" ht="112" customHeight="1">
-      <c r="B387" s="6" t="s">
+    <row r="387" spans="2:2">
+      <c r="B387" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="2:2" ht="48" customHeight="1">
-      <c r="B388" s="6" t="s">
+    <row r="388" spans="2:2">
+      <c r="B388" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="389" spans="2:2">
-      <c r="B389" s="6"/>
-    </row>
-    <row r="390" spans="2:2">
-      <c r="B390" s="8" t="s">
+      <c r="B389" s="8"/>
+    </row>
+    <row r="390" spans="2:2" ht="32">
+      <c r="B390" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="391" spans="2:2" ht="128" customHeight="1">
-      <c r="B391" s="6" t="s">
+    <row r="391" spans="2:2">
+      <c r="B391" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="392" spans="2:2">
-      <c r="B392" s="6"/>
+      <c r="B392" s="8"/>
     </row>
     <row r="393" spans="2:2">
-      <c r="B393" s="8" t="s">
+      <c r="B393" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="160" customHeight="1">
-      <c r="B394" s="6" t="s">
+    <row r="394" spans="2:2">
+      <c r="B394" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="128" customHeight="1">
-      <c r="B395" s="6" t="s">
+    <row r="395" spans="2:2">
+      <c r="B395" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="396" spans="2:2">
-      <c r="B396" s="6"/>
+      <c r="B396" s="8"/>
     </row>
     <row r="397" spans="2:2">
-      <c r="B397" s="8" t="s">
+      <c r="B397" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="398" spans="2:2">
-      <c r="B398" s="9"/>
-    </row>
-    <row r="399" spans="2:2">
-      <c r="B399" s="8" t="s">
+      <c r="B398" s="11"/>
+    </row>
+    <row r="399" spans="2:2" ht="32">
+      <c r="B399" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="400" spans="2:2">
-      <c r="B400" s="9"/>
+      <c r="B400" s="11"/>
     </row>
     <row r="401" spans="2:2">
-      <c r="B401" s="8" t="s">
+      <c r="B401" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="64" customHeight="1">
-      <c r="B402" s="6" t="s">
+    <row r="402" spans="2:2">
+      <c r="B402" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="80" customHeight="1">
-      <c r="B403" s="6" t="s">
+    <row r="403" spans="2:2">
+      <c r="B403" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="404" spans="2:2" ht="256" customHeight="1">
-      <c r="B404" s="6" t="s">
+    <row r="404" spans="2:2" ht="28">
+      <c r="B404" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="405" spans="2:2">
-      <c r="B405" s="6"/>
-    </row>
-    <row r="406" spans="2:2" ht="32" customHeight="1">
-      <c r="B406" s="2" t="s">
+      <c r="B405" s="8"/>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="407" spans="2:2">
-      <c r="B407" s="3"/>
+      <c r="B407" s="5"/>
     </row>
     <row r="408" spans="2:2">
-      <c r="B408" s="8" t="s">
+      <c r="B408" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="48" customHeight="1">
-      <c r="B409" s="6" t="s">
+    <row r="409" spans="2:2">
+      <c r="B409" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="410" spans="2:2">
-      <c r="B410" s="6" t="s">
+      <c r="B410" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="32" customHeight="1">
-      <c r="B411" s="6" t="s">
+    <row r="411" spans="2:2">
+      <c r="B411" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="412" spans="2:2" ht="112" customHeight="1">
-      <c r="B412" s="6" t="s">
+    <row r="412" spans="2:2">
+      <c r="B412" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="413" spans="2:2" ht="48" customHeight="1">
-      <c r="B413" s="6" t="s">
+    <row r="413" spans="2:2">
+      <c r="B413" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="414" spans="2:2" ht="112" customHeight="1">
-      <c r="B414" s="6" t="s">
+    <row r="414" spans="2:2">
+      <c r="B414" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="415" spans="2:2" ht="112" customHeight="1">
-      <c r="B415" s="6" t="s">
+    <row r="415" spans="2:2">
+      <c r="B415" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="416" spans="2:2" ht="96" customHeight="1">
-      <c r="B416" s="6" t="s">
+    <row r="416" spans="2:2">
+      <c r="B416" s="8" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="417" spans="2:2">
-      <c r="B417" s="6"/>
+      <c r="B417" s="8"/>
     </row>
     <row r="418" spans="2:2">
-      <c r="B418" s="8" t="s">
+      <c r="B418" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="419" spans="2:2" ht="80" customHeight="1">
-      <c r="B419" s="6" t="s">
+    <row r="419" spans="2:2">
+      <c r="B419" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="420" spans="2:2" ht="112" customHeight="1">
-      <c r="B420" s="6" t="s">
+    <row r="420" spans="2:2">
+      <c r="B420" s="8" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="421" spans="2:2">
-      <c r="B421" s="6"/>
-    </row>
-    <row r="422" spans="2:2">
-      <c r="B422" s="8" t="s">
+      <c r="B421" s="8"/>
+    </row>
+    <row r="422" spans="2:2" ht="32">
+      <c r="B422" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="423" spans="2:2" ht="144" customHeight="1">
-      <c r="B423" s="6" t="s">
+    <row r="423" spans="2:2">
+      <c r="B423" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="424" spans="2:2" ht="80" customHeight="1">
-      <c r="B424" s="6" t="s">
+    <row r="424" spans="2:2">
+      <c r="B424" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="425" spans="2:2">
-      <c r="B425" s="6"/>
+      <c r="B425" s="8"/>
     </row>
     <row r="426" spans="2:2">
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="427" spans="2:2">
-      <c r="B427" s="3"/>
+      <c r="B427" s="5"/>
     </row>
     <row r="428" spans="2:2">
-      <c r="B428" s="8" t="s">
+      <c r="B428" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="176" customHeight="1">
-      <c r="B429" s="6" t="s">
+    <row r="429" spans="2:2" ht="28">
+      <c r="B429" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="48" customHeight="1">
-      <c r="B430" s="6" t="s">
+    <row r="430" spans="2:2">
+      <c r="B430" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="64" customHeight="1">
-      <c r="B431" s="6" t="s">
+    <row r="431" spans="2:2">
+      <c r="B431" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="432" spans="2:2" ht="96" customHeight="1">
-      <c r="B432" s="6" t="s">
+    <row r="432" spans="2:2">
+      <c r="B432" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="224" customHeight="1">
-      <c r="B433" s="6" t="s">
+    <row r="433" spans="2:2" ht="28">
+      <c r="B433" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="96" customHeight="1">
-      <c r="B434" s="6" t="s">
+    <row r="434" spans="2:2">
+      <c r="B434" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="435" spans="2:2">
-      <c r="B435" s="6"/>
+      <c r="B435" s="8"/>
     </row>
     <row r="436" spans="2:2">
-      <c r="B436" s="8" t="s">
+      <c r="B436" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="80" customHeight="1">
-      <c r="B437" s="6" t="s">
+    <row r="437" spans="2:2">
+      <c r="B437" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="438" spans="2:2">
-      <c r="B438" s="6"/>
+      <c r="B438" s="8"/>
     </row>
     <row r="439" spans="2:2">
-      <c r="B439" s="8" t="s">
+      <c r="B439" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="112" customHeight="1">
-      <c r="B440" s="6" t="s">
+    <row r="440" spans="2:2">
+      <c r="B440" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="441" spans="2:2">
-      <c r="B441" s="6"/>
+      <c r="B441" s="8"/>
     </row>
     <row r="442" spans="2:2">
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="443" spans="2:2">
-      <c r="B443" s="3"/>
+      <c r="B443" s="5"/>
     </row>
     <row r="444" spans="2:2">
-      <c r="B444" s="8" t="s">
+      <c r="B444" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="48" customHeight="1">
-      <c r="B445" s="6" t="s">
+    <row r="445" spans="2:2">
+      <c r="B445" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="446" spans="2:2">
-      <c r="B446" s="6"/>
+      <c r="B446" s="8"/>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="160" customHeight="1">
-      <c r="B448" s="6" t="s">
+    <row r="448" spans="2:2">
+      <c r="B448" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="449" spans="2:2">
-      <c r="B449" s="6"/>
+      <c r="B449" s="8"/>
     </row>
     <row r="450" spans="2:2">
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="451" spans="2:2">
-      <c r="B451" s="3"/>
+      <c r="B451" s="5"/>
     </row>
     <row r="452" spans="2:2">
-      <c r="B452" s="8" t="s">
+      <c r="B452" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="240" customHeight="1">
-      <c r="B453" s="6" t="s">
+    <row r="453" spans="2:2" ht="28">
+      <c r="B453" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="454" spans="2:2">
-      <c r="B454" s="6"/>
-    </row>
-    <row r="455" spans="2:2">
-      <c r="B455" s="8" t="s">
+      <c r="B454" s="8"/>
+    </row>
+    <row r="455" spans="2:2" ht="32">
+      <c r="B455" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="128" customHeight="1">
-      <c r="B456" s="6" t="s">
+    <row r="456" spans="2:2">
+      <c r="B456" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="457" spans="2:2">
-      <c r="B457" s="6"/>
+      <c r="B457" s="8"/>
     </row>
     <row r="458" spans="2:2">
-      <c r="B458" s="8" t="s">
+      <c r="B458" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="176" customHeight="1">
-      <c r="B459" s="6" t="s">
+    <row r="459" spans="2:2" ht="28">
+      <c r="B459" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="460" spans="2:2">
-      <c r="B460" s="6"/>
-    </row>
-    <row r="461" spans="2:2">
-      <c r="B461" s="8" t="s">
+      <c r="B460" s="8"/>
+    </row>
+    <row r="461" spans="2:2" ht="32">
+      <c r="B461" s="10" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="462" spans="2:2">
-      <c r="B462" s="9"/>
+      <c r="B462" s="11"/>
     </row>
     <row r="463" spans="2:2">
-      <c r="B463" s="8" t="s">
+      <c r="B463" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="96" customHeight="1">
-      <c r="B464" s="6" t="s">
+    <row r="464" spans="2:2">
+      <c r="B464" s="8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="64" customHeight="1">
-      <c r="B465" s="6" t="s">
+    <row r="465" spans="2:2">
+      <c r="B465" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="144" customHeight="1">
-      <c r="B466" s="6" t="s">
+    <row r="466" spans="2:2">
+      <c r="B466" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="112" customHeight="1">
-      <c r="B467" s="6" t="s">
+    <row r="467" spans="2:2">
+      <c r="B467" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="468" spans="2:2">
-      <c r="B468" s="6"/>
+      <c r="B468" s="8"/>
     </row>
     <row r="469" spans="2:2">
-      <c r="B469" s="8" t="s">
+      <c r="B469" s="10" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="470" spans="2:2">
-      <c r="B470" s="9"/>
+      <c r="B470" s="11"/>
     </row>
     <row r="471" spans="2:2">
-      <c r="B471" s="8" t="s">
+      <c r="B471" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="472" spans="2:2">
-      <c r="B472" s="9"/>
-    </row>
-    <row r="473" spans="2:2">
-      <c r="B473" s="8" t="s">
+      <c r="B472" s="11"/>
+    </row>
+    <row r="473" spans="2:2" ht="32">
+      <c r="B473" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="474" spans="2:2">
-      <c r="B474" s="9"/>
+      <c r="B474" s="11"/>
     </row>
     <row r="475" spans="2:2">
-      <c r="B475" s="8" t="s">
+      <c r="B475" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="48" customHeight="1">
-      <c r="B476" s="6" t="s">
+    <row r="476" spans="2:2">
+      <c r="B476" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="96" customHeight="1">
-      <c r="B477" s="6" t="s">
+    <row r="477" spans="2:2">
+      <c r="B477" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="478" spans="2:2">
-      <c r="B478" s="6"/>
-    </row>
-    <row r="479" spans="2:2" ht="32" customHeight="1">
-      <c r="B479" s="2" t="s">
+      <c r="B478" s="8"/>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="480" spans="2:2">
-      <c r="B480" s="3"/>
+      <c r="B480" s="5"/>
     </row>
     <row r="481" spans="2:2">
-      <c r="B481" s="8" t="s">
+      <c r="B481" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="482" spans="2:2" ht="128" customHeight="1">
-      <c r="B482" s="6" t="s">
+    <row r="482" spans="2:2">
+      <c r="B482" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="483" spans="2:2">
-      <c r="B483" s="6"/>
+      <c r="B483" s="8"/>
     </row>
     <row r="484" spans="2:2">
-      <c r="B484" s="8" t="s">
+      <c r="B484" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="485" spans="2:2">
-      <c r="B485" s="9"/>
+      <c r="B485" s="11"/>
     </row>
     <row r="486" spans="2:2">
-      <c r="B486" s="8" t="s">
+      <c r="B486" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="160" customHeight="1">
-      <c r="B487" s="6" t="s">
+    <row r="487" spans="2:2">
+      <c r="B487" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="128" customHeight="1">
-      <c r="B488" s="6" t="s">
+    <row r="488" spans="2:2">
+      <c r="B488" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="489" spans="2:2">
-      <c r="B489" s="10"/>
+      <c r="B489" s="12"/>
     </row>
     <row r="490" spans="2:2">
-      <c r="B490" s="10"/>
+      <c r="B490" s="12"/>
     </row>
     <row r="491" spans="2:2">
-      <c r="B491" s="10"/>
+      <c r="B491" s="12"/>
     </row>
     <row r="492" spans="2:2">
-      <c r="B492" s="11" t="s">
+      <c r="B492" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="240" customHeight="1">
-      <c r="B493" s="2" t="s">
+    <row r="493" spans="2:2" ht="32">
+      <c r="B493" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="96" customHeight="1">
-      <c r="B494" s="2" t="s">
+    <row r="494" spans="2:2">
+      <c r="B494" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="80" customHeight="1">
-      <c r="B495" s="6" t="s">
+    <row r="495" spans="2:2">
+      <c r="B495" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="240" customHeight="1">
-      <c r="B496" s="2" t="s">
+    <row r="496" spans="2:2" ht="32">
+      <c r="B496" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="112" customHeight="1">
-      <c r="B497" s="6" t="s">
+    <row r="497" spans="2:2">
+      <c r="B497" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="498" spans="2:2" ht="365" customHeight="1">
-      <c r="B498" s="2" t="s">
+    <row r="498" spans="2:2" ht="48">
+      <c r="B498" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="499" spans="2:2" ht="144" customHeight="1">
-      <c r="B499" s="6" t="s">
+    <row r="499" spans="2:2">
+      <c r="B499" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="500" spans="2:2" ht="144" customHeight="1">
-      <c r="B500" s="6" t="s">
+    <row r="500" spans="2:2">
+      <c r="B500" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="112" customHeight="1">
-      <c r="B501" s="2" t="s">
+    <row r="501" spans="2:2">
+      <c r="B501" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="502" spans="2:2" ht="208" customHeight="1">
-      <c r="B502" s="2" t="s">
+    <row r="502" spans="2:2" ht="32">
+      <c r="B502" s="4" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="503" spans="2:2">
-      <c r="B503" s="6"/>
+      <c r="B503" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
